--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F76AEF21-74EA-4295-A517-C42A3FB62399}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RandomEvent" sheetId="1" r:id="rId1"/>
@@ -99,46 +98,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#ff0000&gt;结果1001&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;结果1002&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;结果1003&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;结果1004&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A.选项描述1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.选项描述1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.选项描述1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D.选项描述1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#000000&gt;部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述部落冲突内容描述&lt;/color&gt;</t>
+    <t>&lt;color=#000000&gt;还不到太阳升起的时间，不远处的森林却一片光明。你还记得母亲说过，这是一种会咬人的光蛇，绝对不能靠近。从森林飘来一阵阵香气，一些年轻人已经蠢蠢欲动，族人们等待着你的决定。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.等待光蛇消失后带领族人走入森林。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.带领一部分人冲进森林一探究竟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
+&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,21 +457,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="47.59765625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -493,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -527,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -553,20 +554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B916825-2AEE-4747-AC6D-655F56CA7739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="52.53125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -585,48 +586,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -1,169 +1,453 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="RandomEvent" sheetId="1" r:id="rId1"/>
     <sheet name="Option" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>事件名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>背景图</t>
+  </si>
+  <si>
+    <t>选项A</t>
+  </si>
+  <si>
+    <t>选项B</t>
+  </si>
+  <si>
+    <t>选项C</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部落冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spriteName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>opA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>opB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>opC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textrues/RandomEvent/bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林大火</t>
+  </si>
+  <si>
+    <t>&lt;color=#000000&gt;还不到太阳升起的时间，不远处的森林却一片光明。你还记得母亲说过，这是一种会咬人的光蛇，绝对不能靠近。从森林飘来一阵阵香气，一些年轻人已经蠢蠢欲动，族人们等待着你的决定。&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Textrues/RandomEvent/fire</t>
   </si>
   <si>
     <t>结果文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;结果1004&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D.选项描述1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#000000&gt;还不到太阳升起的时间，不远处的森林却一片光明。你还记得母亲说过，这是一种会咬人的光蛇，绝对不能靠近。从森林飘来一阵阵香气，一些年轻人已经蠢蠢欲动，族人们等待着你的决定。&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
   </si>
   <si>
     <t>B.等待光蛇消失后带领族人走入森林。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
   </si>
   <si>
     <t>C.带领一部分人冲进森林一探究竟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
 &lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -171,25 +455,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -273,7 +843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -447,91 +1017,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="70.125" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1001</v>
@@ -542,97 +1101,84 @@
       <c r="G3">
         <v>1003</v>
       </c>
-      <c r="H3">
-        <v>1004</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{686B8C8D-D5D5-4C74-A33D-B99F9A88B3FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RandomEvent" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>事件名字</t>
   </si>
@@ -71,56 +65,47 @@
     <t>Textrues/RandomEvent/fire</t>
   </si>
   <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>信仰</t>
+  </si>
+  <si>
+    <t>Buff1</t>
+  </si>
+  <si>
+    <t>Buff1数值</t>
+  </si>
+  <si>
+    <t>Buff2</t>
+  </si>
+  <si>
+    <t>Buff2数值</t>
+  </si>
+  <si>
     <t>结果文字</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>B.等待光蛇消失后带领族人走入森林。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>C.带领一部分人冲进森林一探究竟。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
-&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>popu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>f</t>
     </r>
     <r>
@@ -128,32 +113,73 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ood</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff1</t>
+  </si>
+  <si>
+    <t>buff_num1</t>
+  </si>
+  <si>
+    <t>buff2</t>
+  </si>
+  <si>
+    <t>buff_num2</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>random_popu</t>
+  </si>
+  <si>
+    <t>random_food</t>
+  </si>
+  <si>
+    <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>B.等待光蛇消失后带领族人走入森林。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>C.带领一部分人冲进森林一探究竟。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
+&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,29 +188,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,26 +534,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,26 +1097,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="70.1328125" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.6" customWidth="1"/>
+    <col min="3" max="3" width="70.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -531,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -555,77 +1183,102 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="6" max="10" width="14.2666666666667" customWidth="1"/>
+    <col min="11" max="11" width="49.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:12">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
+      <c r="L2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -645,13 +1298,25 @@
         <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>-0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -671,13 +1336,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -696,16 +1370,25 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>-0.1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90B8CFAB-305C-4BCC-9AE8-8C4CFBFDB6AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomEvent" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>事件名字</t>
   </si>
@@ -168,18 +174,57 @@
     <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
 &lt;/color&gt;</t>
   </si>
+  <si>
+    <t>随机事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.事件2选项A。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.事件2选项B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.事件2选项C。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nlock_num</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,345 +233,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,312 +263,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1097,26 +541,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.6" customWidth="1"/>
-    <col min="3" max="3" width="70.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="31.6" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1182,30 +626,52 @@
         <v>1003</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="10" width="14.2666666666667" customWidth="1"/>
-    <col min="11" max="11" width="49.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="13.3333333333333" customWidth="1"/>
+    <col min="6" max="12" width="14.265625" customWidth="1"/>
+    <col min="13" max="13" width="49.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1233,14 +699,20 @@
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1271,14 +743,20 @@
       <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1309,14 +787,17 @@
       <c r="J3">
         <v>-0.2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1344,14 +825,17 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1379,16 +863,136 @@
       <c r="J5">
         <v>-0.1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>-0.2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>-0.1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90B8CFAB-305C-4BCC-9AE8-8C4CFBFDB6AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD3CF30D-50E5-4650-BC13-BCDFB7882B22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>事件名字</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>result</t>
-  </si>
-  <si>
-    <t>random_popu</t>
-  </si>
-  <si>
-    <t>random_food</t>
   </si>
   <si>
     <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
@@ -631,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -661,7 +655,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -700,10 +694,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -744,10 +738,10 @@
         <v>34</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
@@ -773,28 +767,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>37</v>
-      </c>
-      <c r="J3">
-        <v>-0.2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -802,7 +790,7 @@
         <v>1002</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -816,11 +804,9 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -829,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -840,10 +826,10 @@
         <v>1003</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -857,20 +843,17 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -890,28 +873,22 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
         <v>37</v>
-      </c>
-      <c r="J6">
-        <v>-0.2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -919,7 +896,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -933,11 +910,8 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -946,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -957,10 +931,10 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -974,20 +948,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
       <c r="J8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/RandomEvent.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD3CF30D-50E5-4650-BC13-BCDFB7882B22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RandomEvent" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>事件名字</t>
   </si>
@@ -109,6 +108,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,55 +151,65 @@
     <t>result</t>
   </si>
   <si>
-    <t>A.拦住试图走入森林的年轻人，命令所有人离开此地。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;族人不愿远离那神秘的香气，但仍遵从你的决定，不满在悄悄蔓延。信仰值降低。&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>B.等待光蛇消失后带领族人走入森林。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;香气居然来自死去的野兽！你和族人还是第一次吃到如此美味的食物。走在最前面的几名年轻人吸入了大量黑烟，倒下后再也没有站起来。获得N份食物，人口减少N。&lt;/color&gt;</t>
+    <t>随机事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nlock_num</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.拦住试图走入森林的族人，命令所有人离开此地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.等待热浪消失后带领族人走入森林。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C.带领一部分人冲进森林一探究竟。</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;你回忆起那些矮人似乎曾使用光蛇吞噬你的家园，你想把这股力量为部落所用。在过程中，几名族人被光蛇吞没。恭喜你学会了使用火！获得N份食物，人口减少N。（解锁夜晚的日常任务，解锁智力属性）
-&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>随机事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.事件2选项A。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.事件2选项B。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.事件2选项C。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.向他们的首领致意，吩咐族人拿出物品和他们交换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.部落需要他们的食物和人口！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.硬碰硬可能有很大损失，你安排一队最强壮的族人绕到对方背后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;族人遵从你的决定，但不满悄悄蔓延。信仰减少</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +220,525 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nlock_num</t>
+      <t>P*u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;获得大量野兽尸体。人口减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P*c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，食物增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P*c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;你学会了使用火。人口减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2*P*o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，食物增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P*c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;开始交换，下一步会列出三个交换选项，玩家选择并完成交换&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;你消灭了对方所有人，但你们也损失不少。人口减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5*P*o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，食物增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2*P*c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，武器增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P*y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，信仰增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P*u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;获得了大量的战利品。人口减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5P*o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，食物增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2*P*c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，武器增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2*P*y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，信仰减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5*P*u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A.虔诚地献上珍贵的食物 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.食物短缺，祭坛上的东西看起来还能吃…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.祭坛旁插着的鹿角巫杖似乎有神秘的力量，将它据为己有吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;你学会了祭祀。食物减少P*c，智力增加P*i，信仰增加P*u。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;你学会了祭祀。食物增加P*c，信仰减少P*u。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;你学会了祭祀。获得“祭祀法杖”，增加祭祀效果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.燃起火把，击退饿狼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.用长矛攻击饿狼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.用食物做诱饵，率领战士将狼群包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;人口减少1.5*P*o，食物增加P*c，武器减少P*y。&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;人口减少0.5P*o，食物增加P*c，武器减少0.5*P*y。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;食物减少P*c，武器减少0.5*P*y，智力增加P*i。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.必须除掉邪恶的根源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.狼崽毫无攻击性，把它们带回去吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;食物增加P*c，武器减少0.5*P*y。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;狼狗成为你可靠的伙伴，狩猎变得更加高效。食物减少P*c，智力增加P*i。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;食物获取变得极为困难。人口停止增长，食物消耗加速，狩猎、采集效率降低。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;绝望在部落中蔓延。人口持续减少。你发现邪灵来源于一种植物，你获得了毒草。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.拿起武器与叛乱者战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.假装投降，找机会将毒草放入叛乱者的食物中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.神会惩罚你们！立刻进行一次祭祀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;牺牲惨重，但叛乱者也被清除。人口减少1.5*P*o，武器减少1.5*P*y，信仰增加P*u。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;你再次控制了部落，许多人不得不乞求你的原谅。人口减少0.5P*o，信仰减少P*u。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ff0000&gt;一道闪电划破空气，反叛者的首领成为了牺牲品。所有人都敬畏你召唤的神迹。信仰增加P*u。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,7 +746,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,6 +758,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -261,11 +791,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,21 +1073,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="70.1328125" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="70.125" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -597,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,12 +1153,12 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -651,21 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="12" width="14.265625" customWidth="1"/>
-    <col min="13" max="13" width="49.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="6" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="212.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -694,10 +1227,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -706,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -737,11 +1270,11 @@
       <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>49</v>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
@@ -750,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -778,14 +1311,14 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -804,7 +1337,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
       <c r="H4">
         <v>0</v>
       </c>
@@ -814,14 +1347,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -849,14 +1382,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -884,14 +1417,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -919,14 +1452,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -954,11 +1487,466 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>41</v>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3002</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3003</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4001</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4002</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4003</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5001</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5002</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6001</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7001</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8001</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8002</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8003</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
